--- a/TOM_comments_june.xlsx
+++ b/TOM_comments_june.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="548">
   <si>
     <t xml:space="preserve">♯</t>
   </si>
@@ -55,9 +55,15 @@
     <t xml:space="preserve">Aoi M</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job this month Aoi, you really enjoyed singing and dancing to the animals song, and you can recognize the phonics we did this month! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arisa</t>
   </si>
   <si>
+    <t xml:space="preserve">Awesome work this month Arisa, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the animals song this month, and your coloring sheet was beautiful! Keep it up!</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOPICS</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">Beni</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job this month Beni, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">sight words</t>
   </si>
   <si>
@@ -82,24 +91,36 @@
     <t xml:space="preserve">Emi</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job Emi! You’re such a happy girl and are always speaking with a big voice. You learned the animal song &amp; dance quickly, and did so well at the musical chairs game! Thank you for being such a good student, it’s so nice having you in my class!</t>
+  </si>
+  <si>
     <t xml:space="preserve">calendar – months – days – weather </t>
   </si>
   <si>
     <t xml:space="preserve">Gota</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job Gota! You’re such a happy boy and are always speaking with a big voice. You learned the animal song &amp; dance quickly, and did so well at the musical chairs game! Thank you for being such a good student, it’s so nice having you in my class!</t>
+  </si>
+  <si>
     <t xml:space="preserve">song &amp; dance</t>
   </si>
   <si>
     <t xml:space="preserve">Hana</t>
   </si>
   <si>
+    <t xml:space="preserve">Thank you for being such a good student Hana, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs, and singing along with a big voice – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">culture</t>
   </si>
   <si>
     <t xml:space="preserve">Hanano</t>
   </si>
   <si>
+    <t xml:space="preserve">Thank you for being such a good student Hanano, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs, and singing along with a big voice – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">craft / drawing / writing</t>
   </si>
   <si>
@@ -115,19 +136,37 @@
     <t xml:space="preserve">Well done Haruto, your phonics are very very good, and you memorized the whole sight word story this month! You’re always happy when you arrive at Super epion, and it’s great to see you doing so much homework – good job!</t>
   </si>
   <si>
+    <t xml:space="preserve">Himari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job this month Himari, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEMENTS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiyori</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPLEMENTS</t>
+    <t xml:space="preserve">Thank you for being such a good student Hiyori, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs, and singing along with a big voice – well done!</t>
   </si>
   <si>
     <t xml:space="preserve">Junichi</t>
   </si>
   <si>
+    <t xml:space="preserve">wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kind, making friends</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kanna</t>
   </si>
   <si>
-    <t xml:space="preserve">kind, making friends</t>
+    <t xml:space="preserve">Thank you for being such a good student Kanna, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs, and singing along with a big voice – well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking loud, confident</t>
   </si>
   <si>
     <t xml:space="preserve">Kansuke</t>
@@ -136,13 +175,16 @@
     <t xml:space="preserve">Good work this month Kansuke, you’re always asking for toys in English during free play, and are so good at recognizing letters, even their phonics! You really enjoyed the “party!” dance during culture time, and it’s great to see you doing so much homework – excellent!</t>
   </si>
   <si>
-    <t xml:space="preserve">speaking loud, confident</t>
+    <t xml:space="preserve">happy, funny, smiling</t>
   </si>
   <si>
     <t xml:space="preserve">Kanta</t>
   </si>
   <si>
-    <t xml:space="preserve">happy, funny, smiling</t>
+    <t xml:space="preserve">Well done Kanta, your phonics are very very good, and you memorized the whole sight word story this month! You’re always happy once class starts, and it’s great to see you doing so much homework – great job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excited, having fun</t>
   </si>
   <si>
     <t xml:space="preserve">Kimueru</t>
@@ -151,13 +193,13 @@
     <t xml:space="preserve">Awesome work this month Kimeru, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “party!” dance during culture this month, and your coloring sheet was beautiful!</t>
   </si>
   <si>
-    <t xml:space="preserve">excited, having fun</t>
+    <t xml:space="preserve">smart, homework</t>
   </si>
   <si>
     <t xml:space="preserve">Koki (Igor)</t>
   </si>
   <si>
-    <t xml:space="preserve">smart, homework</t>
+    <t xml:space="preserve">well behaved, working hard, focussed</t>
   </si>
   <si>
     <t xml:space="preserve">Kouki</t>
@@ -166,9 +208,6 @@
     <t xml:space="preserve">Great job this month Kouki, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so happy in class, and it’s great to see you and Mengtao becoming such good friends – yay!</t>
   </si>
   <si>
-    <t xml:space="preserve">well behaved, working hard, focussed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lala (Igor)</t>
   </si>
   <si>
@@ -178,28 +217,31 @@
     <t xml:space="preserve">Awesome work this month Manaka, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful – well done!</t>
   </si>
   <si>
+    <t xml:space="preserve">ACTIVITIES/SPECIFICS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mayu</t>
   </si>
   <si>
     <t xml:space="preserve">Great job this month Mayu, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVITIES/SPECIFICS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mei</t>
   </si>
   <si>
     <t xml:space="preserve">Great job this month Mei, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done! Say “hello” to Munipu for me :)</t>
   </si>
   <si>
+    <t xml:space="preserve">birthdays</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mengtao</t>
   </si>
   <si>
     <t xml:space="preserve">Thank you so much for the drawing you did for me Mengtao, I love all the beautiful colors you used! Your phonics have improved a lot, and you’ve been making so many friends in class recently, it’s great to see you so happy when you arrive at school! Awesome!</t>
   </si>
   <si>
-    <t xml:space="preserve">birthdays</t>
+    <t xml:space="preserve">party party</t>
   </si>
   <si>
     <t xml:space="preserve">Miko</t>
@@ -208,7 +250,7 @@
     <t xml:space="preserve">Great job this month Miko, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">party party</t>
+    <t xml:space="preserve">counting</t>
   </si>
   <si>
     <t xml:space="preserve">Mio A</t>
@@ -217,7 +259,7 @@
     <t xml:space="preserve">Awesome work this month Mio, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful – well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">counting</t>
+    <t xml:space="preserve">reading the sight words</t>
   </si>
   <si>
     <t xml:space="preserve">Mio S</t>
@@ -226,19 +268,25 @@
     <t xml:space="preserve">Great job this month Mio, you really enjoyed singing and dancing to the farm animals song, and have been speaking with a bigger voice each week! You are so well behaved, and it’s been great seeing you become more confident – keep it up!</t>
   </si>
   <si>
-    <t xml:space="preserve">reading the sight words</t>
+    <t xml:space="preserve">G H I crafts</t>
   </si>
   <si>
     <t xml:space="preserve">Miran</t>
   </si>
   <si>
-    <t xml:space="preserve">G H I crafts</t>
+    <t xml:space="preserve">Thank you for being such a good student Miran, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs so much, and singing along with a big voice and smile on your face – well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading and understanding phonics</t>
   </si>
   <si>
     <t xml:space="preserve">Momoa</t>
   </si>
   <si>
-    <t xml:space="preserve">reading and understanding phonics</t>
+    <t xml:space="preserve">Awesome work this month Momoa, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful – well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remembering the letters</t>
   </si>
   <si>
     <t xml:space="preserve">Reina</t>
@@ -247,9 +295,6 @@
     <t xml:space="preserve">Awesome work this month Reina, you’re always smiling and having fun when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful, well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">remembering the letters</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rio I</t>
   </si>
   <si>
@@ -259,13 +304,19 @@
     <t xml:space="preserve">Riri</t>
   </si>
   <si>
+    <t xml:space="preserve">Awesome work this month Riri, you’re always smiling and having fun when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and you’re always singing with such a big voice, well done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job this month XX, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rito</t>
   </si>
   <si>
     <t xml:space="preserve">Good work this month Rito, you’re always saying “Lego please!” when asking for toys during free play, and it’s great to see you doing homework. You really loved doing the “party!” dance during culture time – it’s great having you in class!</t>
   </si>
   <si>
-    <t xml:space="preserve">Great job this month XX, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! Thanks for always being so well behaved in class, and kind to the other kids – well done!</t>
+    <t xml:space="preserve">Awesome work this month XX, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful!</t>
   </si>
   <si>
     <t xml:space="preserve">Ryosei N</t>
@@ -274,13 +325,16 @@
     <t xml:space="preserve">Great job this month Ryosei, you really enjoyed singing and dancing to the farm animals song, and you can recognize a lot of letters in the alphabet! You’re so confident when speaking, and always know the day, month, and season during calendar time – well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome work this month XX, you’re always smiling and laughing when you arrive at Super epion, and have been speaking English more in class! You really loved the “birthdays” culture this month, and your coloring sheet was beautiful!</t>
+    <t xml:space="preserve">Good work this month XX, you’re always saying “Lego please!” when asking for toys during free play, and it’s great to see you doing homework. You really loved doing the “party!” dance during culture time – it’s great having you in class!</t>
   </si>
   <si>
     <t xml:space="preserve">Ryosuke</t>
   </si>
   <si>
-    <t xml:space="preserve">Good work this month XX, you’re always saying “Lego please!” when asking for toys during free play, and it’s great to see you doing homework. You really loved doing the “party!” dance during culture time – it’s great having you in class!</t>
+    <t xml:space="preserve">FINISHED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done XX, your phonics are very very good, and you memorized the whole sight word story this month! You’re always happy when you arrive at Super epion, and it’s great to see you doing so much homework – great job!</t>
   </si>
   <si>
     <t xml:space="preserve">Saku</t>
@@ -289,9 +343,6 @@
     <t xml:space="preserve">Well done Saku, your phonics are getting very good, and you memorized the whole sight word story this month! You’re always happy when you arrive at Super epion, and it’s good to see you doing your homework – great job!</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done XX, your phonics are very very good, and you memorized the whole sight word story this month! You’re always happy when you arrive at Super epion, and it’s great to see you doing so much homework – great job!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sana</t>
   </si>
   <si>
@@ -313,10 +364,13 @@
     <t xml:space="preserve">Shotaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Well done this month Shotaro! You really enjoyed dancing to the animal songs this month, and are always singing loudly during calendar time! You’ve been getting more confident using English and are always so well behaved, great job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">So</t>
   </si>
   <si>
-    <t xml:space="preserve">Good work this month So, you’re always asking for toys in English during free play, and it’s great to see you doing homework! You really loved doing the “party!” dance during culture time, and your phonics have been improving – it’s great having you in class!</t>
+    <t xml:space="preserve">Good work So! You’ve been so happy in class all month, and it’s great to see you doing your homework! You really loved doing the “party!” dance during culture time, and your phonics have been improving – it’s great having you in class!</t>
   </si>
   <si>
     <t xml:space="preserve">Soma</t>
@@ -325,12 +379,21 @@
     <t xml:space="preserve">Taichi</t>
   </si>
   <si>
+    <t xml:space="preserve">Well done Taichi, you did great during the craft and coloring activities this month, it’s definitely your favorite part of class! You’re always really excited to help put the calendar cards on the board, and have been well behaved – keep it up!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiga</t>
   </si>
   <si>
+    <t xml:space="preserve">Excellent work this month Taiga! You’re always so well behaved in class, and are getting much more confident speaking English. It’s great to see you singing loudly, and remembering many of the alphabet phonics, well done! Go Tigers! Go Messenger!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taishi</t>
   </si>
   <si>
+    <t xml:space="preserve">Well done this month Taishi, it’s always great having you in class! You speak very confidently, and have been really enjoying the animal songs this month. Your phonics have been improving, and you made a beautiful coloring sheet – awesome!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toko</t>
   </si>
   <si>
@@ -340,6 +403,9 @@
     <t xml:space="preserve">Tsumugi</t>
   </si>
   <si>
+    <t xml:space="preserve">Thank you for being such a good student Tsumugi, you’re a very good role model to the other kids in class, and your phonics have improved a lot this year! It’s great to see you enjoying the animals songs, and singing along with a big voice – well done!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Utako</t>
   </si>
   <si>
@@ -349,12 +415,21 @@
     <t xml:space="preserve">Yui F</t>
   </si>
   <si>
+    <t xml:space="preserve">Well done this month Yui, it’s great to see your phonics getting better each month, and you always have such a big voice singing the calendar songs! Thank you for being so well behaved, and helping me mark the homework, haha! Good job!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yui K</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job Yui K! You’re such a happy girl and are always speaking with a big voice. You learned the animal song &amp; dance quickly, and did so well at the musical chairs game! Thank you for being such a good student, it’s so nice having you in my class!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yui T</t>
   </si>
   <si>
+    <t xml:space="preserve">Awesome work this month Yui, it’s been so nice having you in class! You’re so much more comfortable now, and I’m so happy to see you enjoying all parts of the lesson! You’ve been having fun playing with the other kids, and really loved the animal song we did this month – keep it up!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yua</t>
   </si>
   <si>
@@ -367,6 +442,9 @@
     <t xml:space="preserve">Yuuri</t>
   </si>
   <si>
+    <t xml:space="preserve">Well done this month Yuuri, you’re always helping out with the calendar board, and being a good role model to the younger kids in class! It’s great to see you remembering the phonics and flash cards each month – keep it up!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yuki Y</t>
   </si>
   <si>
@@ -412,6 +490,9 @@
     <t xml:space="preserve">Hidehito</t>
   </si>
   <si>
+    <t xml:space="preserve">Great job this month Hidehito! It’s so great to see you speaking more and more each week! You’re saying the month, day, weather, and many of the flash cards! You are so well behaved, and make me and Tomomi laugh a lot – thank you for being my student!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hikari</t>
   </si>
   <si>
@@ -421,6 +502,9 @@
     <t xml:space="preserve">Yuki</t>
   </si>
   <si>
+    <t xml:space="preserve">2 PS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nozomi</t>
   </si>
   <si>
@@ -430,9 +514,15 @@
     <t xml:space="preserve">Isshin</t>
   </si>
   <si>
+    <t xml:space="preserve">Great work this month Isshin, you are starting to speak more and more, and are always so happy – you get along well with the other kids in class, and really love calendar time! You are growing up so quickly, your parents should be very proud!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keiichi</t>
   </si>
   <si>
+    <t xml:space="preserve">ABSENT </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sousuke</t>
   </si>
   <si>
@@ -452,6 +542,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATURDAY</t>
   </si>
   <si>
     <t xml:space="preserve">April</t>
@@ -1773,7 +1866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1820,6 +1913,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1971,10 +2068,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2043,6 +2140,9 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
       </c>
@@ -2055,13 +2155,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>5</v>
@@ -2083,13 +2186,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2203,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,13 +2217,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,13 +2234,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,13 +2251,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,13 +2268,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2285,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>5</v>
@@ -2181,10 +2299,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>5</v>
@@ -2195,13 +2313,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2330,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>5</v>
@@ -2220,13 +2344,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,16 +2361,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,13 +2378,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,55 +2395,58 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>48</v>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>5</v>
@@ -2323,11 +2456,8 @@
       <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>5</v>
@@ -2338,16 +2468,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2485,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>5</v>
@@ -2369,16 +2499,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,16 +2516,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,16 +2533,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,16 +2550,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,13 +2567,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,14 +2584,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,16 +2601,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,10 +2618,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>5</v>
@@ -2497,10 +2632,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>5</v>
@@ -2511,16 +2646,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,16 +2663,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,11 +2680,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="F38" s="0" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,16 +2697,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2711,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>5</v>
@@ -2588,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>5</v>
@@ -2602,10 +2739,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>5</v>
@@ -2616,9 +2753,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E43" s="0" t="s">
         <v>5</v>
       </c>
@@ -2628,10 +2767,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>5</v>
@@ -2642,9 +2781,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E45" s="0" t="s">
         <v>5</v>
       </c>
@@ -2654,37 +2795,46 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,19 +2842,21 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,46 +2864,54 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,19 +2919,21 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>114</v>
+      <c r="B58" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,21 +2941,21 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>118</v>
+      <c r="B60" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,10 +2963,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2974,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,10 +2985,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +2996,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,19 +3007,21 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,20 +3029,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,28 +3052,33 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="0"/>
+        <v>162</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>137</v>
+        <v>164</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,10 +3086,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,24 +3097,51 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>141</v>
+        <v>168</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="B74" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12"/>
+      <c r="E76" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2985,1183 +3183,1183 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>144</v>
+      <c r="D1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>179</v>
+      <c r="B19" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="15" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>182</v>
+      <c r="B21" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="15" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="15" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="15" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="15" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>189</v>
+      <c r="B26" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="15" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+      <c r="A28" s="15" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="15" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="15" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="A31" s="15" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="15" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
-        <v>32</v>
-      </c>
       <c r="B33" s="4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="15" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="15" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="A36" s="15" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="15" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="15" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="15" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+      <c r="A40" s="15" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="15" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>144</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="15" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="B49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="n">
         <v>59</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="B59" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="B70" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="n">
         <v>72</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>49</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
-        <v>59</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
-        <v>61</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
-        <v>62</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
-        <v>63</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="n">
-        <v>64</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="n">
-        <v>66</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="n">
-        <v>67</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="n">
-        <v>68</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="n">
-        <v>69</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="n">
-        <v>70</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="n">
-        <v>71</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
-        <v>72</v>
-      </c>
       <c r="B72" s="11" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="n">
+      <c r="A73" s="15" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>142</v>
+      <c r="B73" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>5</v>
@@ -4209,1142 +4407,1142 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>277</v>
+      <c r="C1" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G1" s="8"/>
       <c r="I1" s="8" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>284</v>
+      <c r="B2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>287</v>
+        <v>317</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>290</v>
+      <c r="I2" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>292</v>
+      <c r="B3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>295</v>
+        <v>325</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>298</v>
+      <c r="I3" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>299</v>
+      <c r="B4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>302</v>
+        <v>332</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>305</v>
+      <c r="I4" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>306</v>
+      <c r="B5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>309</v>
+        <v>339</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>312</v>
+      <c r="I5" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>313</v>
+      <c r="A6" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>344</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>316</v>
+        <v>346</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="F7" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="E10" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="E24" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="E28" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="E10" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="F18" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="E24" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="E28" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>460</v>
+      <c r="B31" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>463</v>
+        <v>492</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="K31" s="22" t="s">
+      <c r="I31" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>467</v>
+      <c r="B32" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>498</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>470</v>
+        <v>499</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>501</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="K32" s="22" t="s">
+      <c r="I32" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="K32" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>474</v>
+      <c r="B33" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>477</v>
+        <v>507</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>508</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="K33" s="22" t="s">
+      <c r="I33" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="K33" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>481</v>
+      <c r="B34" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>484</v>
+        <v>514</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>515</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="K34" s="22" t="s">
+      <c r="I34" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="K34" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>488</v>
+      <c r="B35" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>519</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>491</v>
+        <v>521</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>522</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="K35" s="22" t="s">
+      <c r="I35" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="K35" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>495</v>
+      <c r="B36" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>498</v>
+        <v>528</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>529</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="K36" s="22" t="s">
+      <c r="I36" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="K36" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="19" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="E37" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>503</v>
+      <c r="B37" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>534</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="K37" s="22" t="s">
+      <c r="I37" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="19" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="E38" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>508</v>
+      <c r="B38" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>539</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="K38" s="22" t="s">
+      <c r="I38" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="K38" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5354,40 +5552,40 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>511</v>
+      <c r="B42" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="n">
+      <c r="A43" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>514</v>
+      <c r="B43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>5</v>
@@ -5421,13 +5619,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="17"/>
+        <v>314</v>
+      </c>
+      <c r="C1" s="18"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -5436,168 +5634,168 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>290</v>
+      <c r="A2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>321</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>298</v>
+      <c r="A3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>305</v>
+      <c r="A4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>312</v>
+      <c r="A5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>319</v>
+      <c r="A6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>325</v>
+      <c r="A7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>332</v>
+      <c r="B8" s="23" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>339</v>
+      <c r="A9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>346</v>
+      <c r="A10" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>355</v>
+      <c r="A11" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>363</v>
+      <c r="A12" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>371</v>
+      <c r="A13" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>380</v>
+      <c r="A14" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>383</v>
+      <c r="A15" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>385</v>
+      <c r="A16" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>393</v>
+      <c r="A17" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>397</v>
+      <c r="A18" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>403</v>
+      <c r="A19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>414</v>
+      <c r="A20" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>417</v>
+      <c r="A21" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
